--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12804" windowHeight="6588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10212" windowHeight="5784"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>ness-aws-1</t>
-  </si>
-  <si>
-    <t>ness-hand-obs</t>
-  </si>
-  <si>
-    <t>surface-met-2</t>
   </si>
   <si>
     <t>surface-met-1</t>
@@ -469,7 +463,7 @@
   <dimension ref="A1:C911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -494,17 +488,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="12"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
